--- a/Zeitlogging/Simon.xlsx
+++ b/Zeitlogging/Simon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Simon\Dokumente\TBZ\Module\Modul 324\Zeitlogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{188BC0BB-FD83-485F-B693-577EE87173C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DB0B8-1657-442B-85E7-36B5B753BD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhrzeit </t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Modul Overview, Aufgaben besprechen &amp; Noten Zusammensetzung</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Technologien entscheiden, Dokumentieren &amp; Ordnerstruktur aufsetzten</t>
+  </si>
+  <si>
+    <t>Board aufzetzen, Stories erstellen.</t>
+  </si>
+  <si>
+    <t>Stories priorisiert, T-Shirt sizes hinzugefügt &amp; Timelogging</t>
+  </si>
+  <si>
+    <t>Repository erstellen,  Team Mitglieder und Lehrer einladen, Projekt entscheiden und Beschreibung dokumentieren.</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Was ist DevOps? Wissen auffrischen Besprechung im Plenum</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,11 +112,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,12 +456,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE8525D-A8BF-4245-AF80-4AA9F8D4A1CC}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Zeitlogging/Simon.xlsx
+++ b/Zeitlogging/Simon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Simon\Dokumente\TBZ\Module\Modul 324\Zeitlogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DB0B8-1657-442B-85E7-36B5B753BD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FABBAA-6C72-4573-962C-54EDE3C0C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Modul Overview, Aufgaben besprechen &amp; Noten Zusammensetzung</t>
-  </si>
-  <si>
     <t>Pause</t>
   </si>
   <si>
@@ -59,16 +56,19 @@
     <t>Board aufzetzen, Stories erstellen.</t>
   </si>
   <si>
-    <t>Stories priorisiert, T-Shirt sizes hinzugefügt &amp; Timelogging</t>
-  </si>
-  <si>
-    <t>Repository erstellen,  Team Mitglieder und Lehrer einladen, Projekt entscheiden und Beschreibung dokumentieren.</t>
-  </si>
-  <si>
     <t>Welcome</t>
   </si>
   <si>
     <t>Was ist DevOps? Wissen auffrischen Besprechung im Plenum</t>
+  </si>
+  <si>
+    <t>Stories priorisieren, T-Shirt sizes hinzugefügt, Timelogging &amp; Abschluss</t>
+  </si>
+  <si>
+    <t>Modul Overview, Aufgaben besprechen &amp; Noten-Zusammensetzung</t>
+  </si>
+  <si>
+    <t>Repository erstellen,  Team Mitglieder und Lehrer einladen, Projekt entscheiden und Projektbeschreibung erstellen</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -493,15 +493,15 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>0.375</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="72" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>0.4375</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -533,15 +533,15 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitlogging/Simon.xlsx
+++ b/Zeitlogging/Simon.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Simon\Dokumente\TBZ\Module\Modul 324\Zeitlogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FABBAA-6C72-4573-962C-54EDE3C0C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6453F50-B0ED-4AE9-9031-30C05C7E7C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Day1" sheetId="1" r:id="rId1"/>
+    <sheet name="Day2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Day 1</t>
   </si>
@@ -69,13 +70,68 @@
   </si>
   <si>
     <t>Repository erstellen,  Team Mitglieder und Lehrer einladen, Projekt entscheiden und Projektbeschreibung erstellen</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Aufgabe / Tätigkeit</t>
+  </si>
+  <si>
+    <t>Von (Startzeit)</t>
+  </si>
+  <si>
+    <t>Bis (Endzeit)</t>
+  </si>
+  <si>
+    <t>Gesamtdauer</t>
+  </si>
+  <si>
+    <t>Projekt/Kommentar</t>
+  </si>
+  <si>
+    <t>Board updaten</t>
+  </si>
+  <si>
+    <t>T01 Theorie lesen</t>
+  </si>
+  <si>
+    <t>Projektmanagement</t>
+  </si>
+  <si>
+    <t>Aufgabe T01</t>
+  </si>
+  <si>
+    <t>T01 besprechen im Team</t>
+  </si>
+  <si>
+    <t>T01 dokumentieren, Commiten</t>
+  </si>
+  <si>
+    <t>T02 Theorie und Besprechung</t>
+  </si>
+  <si>
+    <t>Aufgabe T02</t>
+  </si>
+  <si>
+    <t>Meeting mit Herr Pangri</t>
+  </si>
+  <si>
+    <t>Zeitlogging, Repo clean up, Board updaten</t>
+  </si>
+  <si>
+    <t>Projektmanagement, DevOps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +147,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,11 +196,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -122,11 +269,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="date_swiss" xfId="1" xr:uid="{009528AB-7F70-4162-A178-D266D7E57A43}"/>
+    <cellStyle name="duration_hhmm" xfId="3" xr:uid="{41ABEFF9-E01E-4255-B9F4-67C4E2214D10}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="time_hhmm" xfId="2" xr:uid="{163E4920-99E3-4C11-AA2A-38E2F443383A}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -459,7 +640,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,4 +728,497 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2F63AB-73E4-49D4-8FF0-C5D8DEE173E8}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="170" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>45898</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <f>IF(AND(C2&lt;&gt;"",D2&lt;&gt;""),D2-C2-IF(E2="",0,E2),"")</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45898</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F30" si="0">IF(AND(C3&lt;&gt;"",D3&lt;&gt;""),D3-C3-IF(E3="",0,E3),"")</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>45898</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888878E-2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45898</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>45898</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45898</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>45898</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Datum" prompt="Bitte Datum eingeben (TT.MM.JJJJ)." sqref="A2:A30" xr:uid="{0141CE4E-5008-45AE-BFCB-941E856DBE3B}">
+      <formula1>DATE(2000,1,1)</formula1>
+      <formula2>DATE(2100,12,31)</formula2>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Zeitformat" prompt="Bitte Zeit als HH:MM eingeben (z.B. 08:30)." sqref="C2:E30" xr:uid="{64DDC17A-313B-45CD-8B8A-9E300DAFF3DD}">
+      <formula1>TIME(0,0,0)</formula1>
+      <formula2>TIME(23,59,59)</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>